--- a/assets/files/moules.xlsx
+++ b/assets/files/moules.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
   <si>
     <t>10X10 6CM</t>
   </si>
@@ -155,6 +155,45 @@
   </si>
   <si>
     <t>Seuil</t>
+  </si>
+  <si>
+    <t>AGGLOS 07</t>
+  </si>
+  <si>
+    <t>AGGLOS 10 C1</t>
+  </si>
+  <si>
+    <t>AGGLOS 15</t>
+  </si>
+  <si>
+    <t>AGGLOS 15 C1</t>
+  </si>
+  <si>
+    <t>AGGLOS 20</t>
+  </si>
+  <si>
+    <t>AGGLOS 25</t>
+  </si>
+  <si>
+    <t>HOURDIS 12P</t>
+  </si>
+  <si>
+    <t>HOURDIS 15N</t>
+  </si>
+  <si>
+    <t>HOURDIS 16P</t>
+  </si>
+  <si>
+    <t>HOURDIS 20P</t>
+  </si>
+  <si>
+    <t>HOURDIS 25P</t>
+  </si>
+  <si>
+    <t>NOVABLOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pieces / planche </t>
   </si>
 </sst>
 </file>
@@ -190,8 +229,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -199,7 +241,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -232,13 +277,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D1048576"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Numero" dataDxfId="3"/>
-    <tableColumn id="2" name="Nom" dataDxfId="2"/>
-    <tableColumn id="4" name="Unite" dataDxfId="1"/>
-    <tableColumn id="5" name="Seuil" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1048576"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Numero" dataDxfId="4"/>
+    <tableColumn id="2" name="Nom" dataDxfId="3"/>
+    <tableColumn id="4" name="Unite" dataDxfId="2"/>
+    <tableColumn id="5" name="Seuil" dataDxfId="1"/>
+    <tableColumn id="3" name="Pieces / planche " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -531,20 +577,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -557,8 +605,11 @@
       <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>28</v>
       </c>
@@ -571,8 +622,11 @@
       <c r="D2" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>76</v>
       </c>
@@ -585,8 +639,11 @@
       <c r="D3" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>83</v>
       </c>
@@ -599,8 +656,11 @@
       <c r="D4" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -613,8 +673,11 @@
       <c r="D5" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>19</v>
       </c>
@@ -627,8 +690,11 @@
       <c r="D6" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>18</v>
       </c>
@@ -641,8 +707,11 @@
       <c r="D7" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>87</v>
       </c>
@@ -655,8 +724,11 @@
       <c r="D8" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>85</v>
       </c>
@@ -669,8 +741,11 @@
       <c r="D9" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>75</v>
       </c>
@@ -683,8 +758,11 @@
       <c r="D10" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>53</v>
       </c>
@@ -697,8 +775,11 @@
       <c r="D11" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>54</v>
       </c>
@@ -711,8 +792,11 @@
       <c r="D12" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>29</v>
       </c>
@@ -725,8 +809,11 @@
       <c r="D13" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>31</v>
       </c>
@@ -739,8 +826,11 @@
       <c r="D14" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>80</v>
       </c>
@@ -753,8 +843,11 @@
       <c r="D15" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>65</v>
       </c>
@@ -767,8 +860,11 @@
       <c r="D16" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>23</v>
       </c>
@@ -781,8 +877,11 @@
       <c r="D17" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>24</v>
       </c>
@@ -795,8 +894,11 @@
       <c r="D18" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>73</v>
       </c>
@@ -809,8 +911,11 @@
       <c r="D19" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>70</v>
       </c>
@@ -823,8 +928,11 @@
       <c r="D20" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>62</v>
       </c>
@@ -837,8 +945,11 @@
       <c r="D21" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>59</v>
       </c>
@@ -851,8 +962,11 @@
       <c r="D22" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>66</v>
       </c>
@@ -865,8 +979,11 @@
       <c r="D23" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>69</v>
       </c>
@@ -879,8 +996,11 @@
       <c r="D24" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>72</v>
       </c>
@@ -893,8 +1013,11 @@
       <c r="D25" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>46</v>
       </c>
@@ -907,8 +1030,11 @@
       <c r="D26" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>79</v>
       </c>
@@ -921,8 +1047,11 @@
       <c r="D27" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>48</v>
       </c>
@@ -935,8 +1064,11 @@
       <c r="D28" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>49</v>
       </c>
@@ -949,8 +1081,11 @@
       <c r="D29" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>77</v>
       </c>
@@ -963,8 +1098,11 @@
       <c r="D30" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>60</v>
       </c>
@@ -977,8 +1115,11 @@
       <c r="D31" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -991,8 +1132,11 @@
       <c r="D32" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45</v>
       </c>
@@ -1005,8 +1149,11 @@
       <c r="D33" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>64</v>
       </c>
@@ -1019,8 +1166,11 @@
       <c r="D34" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>52</v>
       </c>
@@ -1033,8 +1183,11 @@
       <c r="D35" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1047,8 +1200,11 @@
       <c r="D36" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>9</v>
       </c>
@@ -1061,8 +1217,11 @@
       <c r="D37" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>17</v>
       </c>
@@ -1075,8 +1234,11 @@
       <c r="D38" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -1089,8 +1251,11 @@
       <c r="D39" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>15</v>
       </c>
@@ -1103,8 +1268,11 @@
       <c r="D40" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>84</v>
       </c>
@@ -1117,8 +1285,11 @@
       <c r="D41" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>16</v>
       </c>
@@ -1131,8 +1302,11 @@
       <c r="D42" s="1">
         <v>90000</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>14</v>
       </c>
@@ -1144,6 +1318,230 @@
       </c>
       <c r="D43" s="1">
         <v>90000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E44" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E45" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>28</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E46" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>18</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>29</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>27</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>19</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>80</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E51" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>26</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E52" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E53" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E54" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>16</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E55" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>31</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E56" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
